--- a/data/watford_players_login_info.xlsx
+++ b/data/watford_players_login_info.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Desktop/DPTO PRACTICAS PROF/WATFORD/watford-player-development/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6EC3B2-DB93-D043-B9EA-1CBDBDD09FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="37800" yWindow="520" windowWidth="23940" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>playerName</t>
   </si>
@@ -146,13 +152,136 @@
   </si>
   <si>
     <t>Luca Kjerrumgaard</t>
+  </si>
+  <si>
+    <t>141468</t>
+  </si>
+  <si>
+    <t>362761</t>
+  </si>
+  <si>
+    <t>368493</t>
+  </si>
+  <si>
+    <t>425565</t>
+  </si>
+  <si>
+    <t>470676</t>
+  </si>
+  <si>
+    <t>390700</t>
+  </si>
+  <si>
+    <t>29595</t>
+  </si>
+  <si>
+    <t>350062</t>
+  </si>
+  <si>
+    <t>363718</t>
+  </si>
+  <si>
+    <t>363139</t>
+  </si>
+  <si>
+    <t>383814</t>
+  </si>
+  <si>
+    <t>498185</t>
+  </si>
+  <si>
+    <t>386971</t>
+  </si>
+  <si>
+    <t>367217</t>
+  </si>
+  <si>
+    <t>384353</t>
+  </si>
+  <si>
+    <t>454349</t>
+  </si>
+  <si>
+    <t>145392</t>
+  </si>
+  <si>
+    <t>81979</t>
+  </si>
+  <si>
+    <t>90918</t>
+  </si>
+  <si>
+    <t>388017</t>
+  </si>
+  <si>
+    <t>512775</t>
+  </si>
+  <si>
+    <t>23547</t>
+  </si>
+  <si>
+    <t>408984</t>
+  </si>
+  <si>
+    <t>415163</t>
+  </si>
+  <si>
+    <t>494112</t>
+  </si>
+  <si>
+    <t>495339</t>
+  </si>
+  <si>
+    <t>403894</t>
+  </si>
+  <si>
+    <t>526551</t>
+  </si>
+  <si>
+    <t>444726</t>
+  </si>
+  <si>
+    <t>479285</t>
+  </si>
+  <si>
+    <t>446988</t>
+  </si>
+  <si>
+    <t>516143</t>
+  </si>
+  <si>
+    <t>372297</t>
+  </si>
+  <si>
+    <t>470678</t>
+  </si>
+  <si>
+    <t>433594</t>
+  </si>
+  <si>
+    <t>521224</t>
+  </si>
+  <si>
+    <t>555487</t>
+  </si>
+  <si>
+    <t>455668</t>
+  </si>
+  <si>
+    <t>386392</t>
+  </si>
+  <si>
+    <t>318741</t>
+  </si>
+  <si>
+    <t>498911</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,13 +344,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,7 +396,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -293,6 +430,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -327,9 +465,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,14 +641,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,440 +664,452 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>141468</v>
+      <c r="B2" t="s">
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>362761</v>
+      <c r="B3" t="s">
+        <v>45</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>368493</v>
+      <c r="B4" t="s">
+        <v>46</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>425565</v>
+      <c r="B5" t="s">
+        <v>47</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>470676</v>
+      <c r="B6" t="s">
+        <v>48</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>390700</v>
+      <c r="B7" t="s">
+        <v>49</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>29595</v>
+      <c r="B8" t="s">
+        <v>50</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>350062</v>
+      <c r="B9" t="s">
+        <v>51</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>363718</v>
+      <c r="B10" t="s">
+        <v>52</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>363139</v>
+      <c r="B11" t="s">
+        <v>53</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>383814</v>
+      <c r="B12" t="s">
+        <v>54</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>498185</v>
+      <c r="B13" t="s">
+        <v>55</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>386971</v>
+      <c r="B14" t="s">
+        <v>56</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>367217</v>
+      <c r="B15" t="s">
+        <v>57</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>384353</v>
+      <c r="B16" t="s">
+        <v>58</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
-        <v>454349</v>
+      <c r="B17" t="s">
+        <v>59</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>145392</v>
+      <c r="B18" t="s">
+        <v>60</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
-        <v>81979</v>
+      <c r="B19" t="s">
+        <v>61</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
-        <v>90918</v>
+      <c r="B20" t="s">
+        <v>62</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
-        <v>388017</v>
+      <c r="B21" t="s">
+        <v>63</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
-        <v>512775</v>
+      <c r="B22" t="s">
+        <v>64</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
-        <v>23547</v>
+      <c r="B23" t="s">
+        <v>65</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
-        <v>408984</v>
+      <c r="B24" t="s">
+        <v>66</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
-        <v>415163</v>
+      <c r="B25" t="s">
+        <v>67</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
-        <v>494112</v>
+      <c r="B26" t="s">
+        <v>68</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
-        <v>495339</v>
+      <c r="B27" t="s">
+        <v>69</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
-        <v>403894</v>
+      <c r="B28" t="s">
+        <v>70</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
-        <v>526551</v>
+      <c r="B29" t="s">
+        <v>71</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30">
-        <v>444726</v>
+      <c r="B30" t="s">
+        <v>72</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31">
-        <v>479285</v>
+      <c r="B31" t="s">
+        <v>73</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
-        <v>446988</v>
+      <c r="B32" t="s">
+        <v>74</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33">
-        <v>516143</v>
+      <c r="B33" t="s">
+        <v>75</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34">
-        <v>372297</v>
+      <c r="B34" t="s">
+        <v>76</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35">
-        <v>470678</v>
+      <c r="B35" t="s">
+        <v>77</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36">
-        <v>433594</v>
+      <c r="B36" t="s">
+        <v>78</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37">
-        <v>521224</v>
+      <c r="B37" t="s">
+        <v>79</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38">
-        <v>555487</v>
+      <c r="B38" t="s">
+        <v>80</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
       </c>
       <c r="C42">
         <v>1</v>
